--- a/output.xlsx
+++ b/output.xlsx
@@ -14,36 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Teacher</t>
+    <t>Student Grades:</t>
   </si>
   <si>
-    <t>a</t>
+    <t>math</t>
   </si>
   <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Math</t>
-  </si>
-  <si>
-    <t>Geo</t>
-  </si>
-  <si>
-    <t>Average:</t>
-  </si>
-  <si>
-    <t>Students Average:</t>
-  </si>
-  <si>
-    <t>Median:</t>
+    <t>Student Average:</t>
   </si>
 </sst>
 </file>
@@ -375,91 +354,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>98</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16">
-        <v>66.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>9</v>
+      <c r="B4">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Student Grades:</t>
-  </si>
-  <si>
-    <t>math</t>
   </si>
   <si>
     <t>Student Average:</t>
@@ -354,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,20 +362,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>98</v>
+      <c r="B3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Student Grades:</t>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>math</t>
   </si>
   <si>
     <t>Student Average:</t>
+  </si>
+  <si>
+    <t>Average:</t>
   </si>
 </sst>
 </file>
@@ -351,7 +360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -362,12 +371,33 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,21 +14,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
   <si>
     <t>Student</t>
   </si>
   <si>
-    <t>b</t>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>bb</t>
   </si>
   <si>
     <t>math</t>
   </si>
   <si>
-    <t>Student Average:</t>
+    <t>hist</t>
   </si>
   <si>
     <t>Average:</t>
+  </si>
+  <si>
+    <t>Students Average:</t>
+  </si>
+  <si>
+    <t>Median:</t>
+  </si>
+  <si>
+    <t>Excellent Students:</t>
   </si>
 </sst>
 </file>
@@ -360,44 +381,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>90</v>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>88.5</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Teacher</t>
   </si>
@@ -22,25 +22,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>Student</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>bb</t>
-  </si>
-  <si>
-    <t>math</t>
-  </si>
-  <si>
-    <t>hist</t>
-  </si>
-  <si>
-    <t>Average:</t>
   </si>
   <si>
     <t>Students Average:</t>
@@ -381,134 +363,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>50.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>88.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18">
-        <v>69.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19">
-        <v>69.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21">
-        <v>88.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>88.5</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,15 +14,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Teacher</t>
   </si>
   <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
-    <t>Student</t>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>math</t>
+  </si>
+  <si>
+    <t>hist</t>
+  </si>
+  <si>
+    <t>Average:</t>
   </si>
   <si>
     <t>Students Average:</t>
@@ -363,51 +381,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>63.33333333333334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>5</v>
+      <c r="C27">
+        <v>79.5</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -433,7 +433,7 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -441,7 +441,7 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>61.5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -452,7 +452,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -460,7 +460,7 @@
         <v>7</v>
       </c>
       <c r="C14">
-        <v>94</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -468,7 +468,7 @@
         <v>8</v>
       </c>
       <c r="C15">
-        <v>79.5</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -479,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>44</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -487,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <v>54</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -495,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <v>49</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -503,7 +503,7 @@
         <v>9</v>
       </c>
       <c r="B22">
-        <v>63.33333333333334</v>
+        <v>67.33333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -511,7 +511,7 @@
         <v>10</v>
       </c>
       <c r="B23">
-        <v>61.5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -521,21 +521,21 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25">
-        <v>79.5</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
       </c>
       <c r="C27">
-        <v>79.5</v>
+        <v>95.5</v>
       </c>
     </row>
   </sheetData>
